--- a/doc_testbed/Target_pre-deployment-tests.xlsx
+++ b/doc_testbed/Target_pre-deployment-tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingmo\Documents\GitHub\shepherd_v2_planning\PCBs_Testbed_Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingmo\Documents\GitHub\shepherd_v2_planning\doc_testbed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09926359-FA00-48C1-B073-AB73FF0B55A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1907B81-1C54-4ECE-ADF4-6338013EEE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12405" yWindow="8385" windowWidth="15045" windowHeight="21945" xr2:uid="{0961F1A4-98B1-4F35-911A-F9CB780BF838}"/>
+    <workbookView xWindow="28545" yWindow="2415" windowWidth="18315" windowHeight="26835" xr2:uid="{0961F1A4-98B1-4F35-911A-F9CB780BF838}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="24">
   <si>
     <t>Target</t>
   </si>
@@ -64,12 +64,6 @@
   </si>
   <si>
     <t>Flaky</t>
-  </si>
-  <si>
-    <t>High C</t>
-  </si>
-  <si>
-    <t>17nA</t>
   </si>
   <si>
     <t>19nA</t>
@@ -87,10 +81,26 @@
 hot air rework</t>
   </si>
   <si>
-    <t>gpio error on nrf-side</t>
-  </si>
-  <si>
     <t>C unconnected -&gt; solder-fix</t>
+  </si>
+  <si>
+    <t>15nA</t>
+  </si>
+  <si>
+    <t>prev. Flaky</t>
+  </si>
+  <si>
+    <t>monitor!</t>
+  </si>
+  <si>
+    <t>several cleanings</t>
+  </si>
+  <si>
+    <t>several cleanings, 
+gpio error on nrf-side</t>
+  </si>
+  <si>
+    <t>21nA</t>
   </si>
 </sst>
 </file>
@@ -114,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +143,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -146,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -163,20 +179,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -202,6 +218,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -218,17 +243,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3AD7FE81-A7F6-4917-AEFC-78F3D59AF956}" name="Table1" displayName="Table1" ref="A1:I21" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3AD7FE81-A7F6-4917-AEFC-78F3D59AF956}" name="Table1" displayName="Table1" ref="A1:I21" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I21" xr:uid="{3AD7FE81-A7F6-4917-AEFC-78F3D59AF956}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{AB1111EA-1189-4670-B60E-2E04180241E7}" name="Target" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{9C88A57E-F780-4CC3-BA99-046F311B4956}" name="Visual" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{7195CB4D-4AF3-465C-AF5A-354CCBF97D0C}" name="Pgm1 nRF" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{2CC13D68-4199-4EB2-B005-409CEE8AEA08}" name="Pgm2 MSP" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{C8A879B1-C30E-4081-82A2-091E8E4E8DB1}" name="T1 GPIO" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{903CC865-8B03-4D80-A86B-E4E0A53B7DB0}" name="T2 RF" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{4B5E2432-0988-4E75-864C-D73D05146064}" name="T3 Sleep" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{94650C81-E1B2-4E5C-8E32-27458281274E}" name="cleaned" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{AB1111EA-1189-4670-B60E-2E04180241E7}" name="Target" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{9C88A57E-F780-4CC3-BA99-046F311B4956}" name="Visual" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{7195CB4D-4AF3-465C-AF5A-354CCBF97D0C}" name="Pgm1 nRF" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{2CC13D68-4199-4EB2-B005-409CEE8AEA08}" name="Pgm2 MSP" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{C8A879B1-C30E-4081-82A2-091E8E4E8DB1}" name="T1 GPIO" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{903CC865-8B03-4D80-A86B-E4E0A53B7DB0}" name="T2 RF" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{4B5E2432-0988-4E75-864C-D73D05146064}" name="T3 Sleep" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{94650C81-E1B2-4E5C-8E32-27458281274E}" name="cleaned" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{4F9009E0-8056-4545-95BD-48D33DC9717D}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -532,10 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAB11B8-A1C8-475F-B7A9-600D8151A6A0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +609,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -590,14 +618,22 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -612,17 +648,17 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -637,17 +673,17 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -662,17 +698,17 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -687,17 +723,17 @@
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -712,17 +748,17 @@
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -737,11 +773,13 @@
       <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -756,11 +794,13 @@
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -775,17 +815,17 @@
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -800,17 +840,17 @@
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="E11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -825,17 +865,17 @@
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="E12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -850,20 +890,22 @@
       <c r="D13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -874,23 +916,25 @@
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="F14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -901,21 +945,23 @@
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="F15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -926,15 +972,17 @@
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
+      <c r="F16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>19</v>
+      <c r="I16" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -942,55 +990,55 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="I18" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -998,7 +1046,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
@@ -1009,16 +1057,16 @@
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="F19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -1028,10 +1076,10 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1041,14 +1089,14 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/doc_testbed/Target_pre-deployment-tests.xlsx
+++ b/doc_testbed/Target_pre-deployment-tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingmo\Documents\GitHub\shepherd_v2_planning\doc_testbed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1907B81-1C54-4ECE-ADF4-6338013EEE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FF1034-C20A-408F-B7BB-926C915F9E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28545" yWindow="2415" windowWidth="18315" windowHeight="26835" xr2:uid="{0961F1A4-98B1-4F35-911A-F9CB780BF838}"/>
+    <workbookView xWindow="1605" yWindow="3450" windowWidth="13800" windowHeight="26970" xr2:uid="{0961F1A4-98B1-4F35-911A-F9CB780BF838}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="26">
   <si>
     <t>Target</t>
   </si>
@@ -101,6 +101,13 @@
   </si>
   <si>
     <t>21nA</t>
+  </si>
+  <si>
+    <t>several cleanings
+rm msp &amp; repl. Ant λ/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> repl. Ant λ/4</t>
   </si>
 </sst>
 </file>
@@ -162,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -181,12 +188,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,7 +564,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,17 +622,17 @@
       <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -648,17 +649,17 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -673,17 +674,17 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -698,17 +699,17 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -723,17 +724,19 @@
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -748,17 +751,19 @@
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -773,12 +778,12 @@
       <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7" t="s">
-        <v>21</v>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -794,12 +799,12 @@
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7" t="s">
-        <v>21</v>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -815,17 +820,17 @@
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -840,17 +845,17 @@
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -865,17 +870,19 @@
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -890,14 +897,14 @@
       <c r="D13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>21</v>
+      <c r="I13" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -916,16 +923,16 @@
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -945,14 +952,14 @@
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7" t="s">
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -972,16 +979,16 @@
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1001,16 +1008,16 @@
       <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="7" t="s">
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -1028,16 +1035,16 @@
       <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1057,16 +1064,16 @@
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="7" t="s">
+      <c r="F19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="7"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -1076,10 +1083,10 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1089,10 +1096,10 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
